--- a/explore/pseudoboolean/php-scaling.xlsx
+++ b/explore/pseudoboolean/php-scaling.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E31C853-BA87-5746-A2F5-1F0459D19146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B0BD81-3376-0846-AEAD-8DFC0322800B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="500" windowWidth="28840" windowHeight="15860" firstSheet="1" activeTab="1" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
+    <workbookView xWindow="6020" yWindow="500" windowWidth="36000" windowHeight="15860" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="MCB Operations" sheetId="1" r:id="rId1"/>
-    <sheet name="PHP BDD Ops Rand MinFill" sheetId="6" r:id="rId2"/>
+    <sheet name="PHP BDD Ops with presumming" sheetId="7" r:id="rId1"/>
+    <sheet name="MCB Operations" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>N</t>
   </si>
@@ -66,6 +66,9 @@
   <si>
     <t>Z2 Static</t>
   </si>
+  <si>
+    <t>Z2 Presum</t>
+  </si>
 </sst>
 </file>
 
@@ -75,13 +78,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,6 +137,1615 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops with presumming'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z2 Static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$A$4:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5784-A644-BF1E-DCE493EFEB21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops with presumming'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z5 Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$A$4:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$F$4:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>9525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185930</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>247250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>440050</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>645575</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>965750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1272050</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022850</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3275000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4458275</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5882525</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9724325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14487950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20293625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27847200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5784-A644-BF1E-DCE493EFEB21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops with presumming'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z3 Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$A$4:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$E$4:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232407</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>347670</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>457938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>728226</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1179000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1604979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2117709</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3500757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5215662</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7305705</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10024992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5784-A644-BF1E-DCE493EFEB21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops with presumming'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z2 Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$A$4:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$D$4:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2548</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>154520</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>203528</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>323656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>524000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>713324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>941204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1555892</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2318072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3246980</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4455552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5784-A644-BF1E-DCE493EFEB21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops with presumming'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z2 Presum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>345248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>515776</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>720096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>958720</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1577536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2347904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3269824</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4344320</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7110272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10547968</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14657408</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19440640</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31674624</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46857728</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64989952</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>86075392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5784-A644-BF1E-DCE493EFEB21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Trend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$G$4:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1637.4616172486576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2449.9751678137445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3444.4040213304288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4626.7527356211522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7576.130017079854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11335.429309886131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15936.40572827506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21406.840876577797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35052.880281945705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52446.22856895579</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73733.808799265287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99044.159586712907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162181.00973589288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>242655.73150442826</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>341148.10156976676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>458252.8363151215</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>750371.43046134245</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1122708.069552266</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1578407.9121898792</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2120222.5640271427</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3471783.068618976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5194492.6321048848</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7302903.1256506024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9809745.5482382644</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16063081.810216032</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24033632.99575517</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33788727.014580153</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45387267.051058777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5784-A644-BF1E-DCE493EFEB21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1388773584"/>
+        <c:axId val="1389361440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1388773584"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1024"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389361440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1389361440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388773584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -751,1294 +2370,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Z2 Static</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$A$4:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$B$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FC92-CE44-9AC3-09F4312470FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Z5 Random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$A$4:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$E$4:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>9525</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15925</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36050</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50850</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81550</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>185930</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>247250</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>440050</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>645575</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>965750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1272050</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2022850</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3275000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4458275</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5882525</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9724325</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14487950</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20293625</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27847200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC92-CE44-9AC3-09F4312470FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Z3 Random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$A$4:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$D$4:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>3429</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5733</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12978</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18306</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46152</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66942</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>89010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>232407</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>347670</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>457938</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>728226</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1179000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1604979</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2117709</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3500757</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5215662</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7305705</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10024992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1697-B94E-BB36-BE4A1575745B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Z2 Random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$A$4:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$C$4:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2548</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5768</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8136</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29752</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39560</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70408</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>103292</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>154520</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>203528</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>323656</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>524000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>713324</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>941204</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1555892</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2318072</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3246980</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4455552</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC92-CE44-9AC3-09F4312470FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Trend</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$A$4:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops Rand MinFill'!$F$4:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1637.4616172486576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2449.9751678137445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3444.4040213304288</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4626.7527356211522</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7576.130017079854</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11335.429309886131</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15936.40572827506</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21406.840876577797</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35052.880281945705</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52446.22856895579</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>73733.808799265287</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>99044.159586712907</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>162181.00973589288</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>242655.73150442826</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>341148.10156976676</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>458252.8363151215</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>750371.43046134245</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1122708.069552266</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1578407.9121898792</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2120222.5640271427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1697-B94E-BB36-BE4A1575745B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1388773584"/>
-        <c:axId val="1389361440"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1388773584"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-          <c:max val="256"/>
-          <c:min val="8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1389361440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1389361440"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="100000000"/>
-          <c:min val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1388773584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3127,6 +3458,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292485</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333536</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>192424</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BA7336-4013-1544-9FEF-D2E54722E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>292485</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -3148,49 +3522,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>292485</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>116481</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>333536</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>192424</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E33133D-E65F-B94E-B20D-52BBA6D1232E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3503,6 +3834,664 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C8FDBE-E227-6344-8301-815840BCDECB}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1936</v>
+      </c>
+      <c r="C4">
+        <v>2412</v>
+      </c>
+      <c r="D4">
+        <v>1524</v>
+      </c>
+      <c r="E4">
+        <v>3429</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9525</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G32" si="0">POWER(A4,$G$2)*F$2/POWER(A$4,$G$2)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3276</v>
+      </c>
+      <c r="C5">
+        <v>4576</v>
+      </c>
+      <c r="D5">
+        <v>2548</v>
+      </c>
+      <c r="E5">
+        <v>5733</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15925</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>1637.4616172486576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4952</v>
+      </c>
+      <c r="C6">
+        <v>7748</v>
+      </c>
+      <c r="D6">
+        <v>4100</v>
+      </c>
+      <c r="E6">
+        <v>9225</v>
+      </c>
+      <c r="F6" s="3">
+        <v>25625</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>2449.9751678137445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6964</v>
+      </c>
+      <c r="C7">
+        <v>12120</v>
+      </c>
+      <c r="D7">
+        <v>5768</v>
+      </c>
+      <c r="E7">
+        <v>12978</v>
+      </c>
+      <c r="F7" s="3">
+        <v>36050</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>3444.4040213304288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9376</v>
+      </c>
+      <c r="C8">
+        <v>17884</v>
+      </c>
+      <c r="D8">
+        <v>8136</v>
+      </c>
+      <c r="E8">
+        <v>18306</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50850</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>4626.7527356211522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15752</v>
+      </c>
+      <c r="C9">
+        <v>34356</v>
+      </c>
+      <c r="D9">
+        <v>13048</v>
+      </c>
+      <c r="E9">
+        <v>29358</v>
+      </c>
+      <c r="F9" s="3">
+        <v>81550</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>7576.130017079854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4">
+        <v>23728</v>
+      </c>
+      <c r="C10">
+        <v>58700</v>
+      </c>
+      <c r="D10">
+        <v>20512</v>
+      </c>
+      <c r="E10">
+        <v>46152</v>
+      </c>
+      <c r="F10" s="3">
+        <v>128200</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>11335.429309886131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4">
+        <v>33304</v>
+      </c>
+      <c r="C11">
+        <v>92452</v>
+      </c>
+      <c r="D11">
+        <v>29752</v>
+      </c>
+      <c r="E11">
+        <v>66942</v>
+      </c>
+      <c r="F11" s="3">
+        <v>185930</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>15936.40572827506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44608</v>
+      </c>
+      <c r="C12">
+        <v>137148</v>
+      </c>
+      <c r="D12">
+        <v>39560</v>
+      </c>
+      <c r="E12">
+        <v>89010</v>
+      </c>
+      <c r="F12" s="3">
+        <v>247250</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>21406.840876577797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4">
+        <v>74384</v>
+      </c>
+      <c r="C13">
+        <v>265516</v>
+      </c>
+      <c r="D13">
+        <v>70408</v>
+      </c>
+      <c r="E13">
+        <v>158418</v>
+      </c>
+      <c r="F13" s="3">
+        <v>440050</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>35052.880281945705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4">
+        <v>111584</v>
+      </c>
+      <c r="C14">
+        <v>456092</v>
+      </c>
+      <c r="D14">
+        <v>103292</v>
+      </c>
+      <c r="E14">
+        <v>232407</v>
+      </c>
+      <c r="F14" s="3">
+        <v>645575</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>52446.22856895579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>56</v>
+      </c>
+      <c r="B15" s="4">
+        <v>156208</v>
+      </c>
+      <c r="C15">
+        <v>721164</v>
+      </c>
+      <c r="D15">
+        <v>154520</v>
+      </c>
+      <c r="E15">
+        <v>347670</v>
+      </c>
+      <c r="F15" s="3">
+        <v>965750</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>73733.808799265287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4">
+        <v>208512</v>
+      </c>
+      <c r="C16">
+        <v>1073020</v>
+      </c>
+      <c r="D16">
+        <v>203528</v>
+      </c>
+      <c r="E16">
+        <v>457938</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1272050</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>99044.159586712907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>80</v>
+      </c>
+      <c r="B17" s="4">
+        <v>345248</v>
+      </c>
+      <c r="C17">
+        <v>2086236</v>
+      </c>
+      <c r="D17">
+        <v>323656</v>
+      </c>
+      <c r="E17">
+        <v>728226</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2022850</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>162181.00973589288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>96</v>
+      </c>
+      <c r="B18" s="4">
+        <v>515776</v>
+      </c>
+      <c r="C18">
+        <v>3594044</v>
+      </c>
+      <c r="D18">
+        <v>524000</v>
+      </c>
+      <c r="E18">
+        <v>1179000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3275000</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>242655.73150442826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>112</v>
+      </c>
+      <c r="B19" s="4">
+        <v>720096</v>
+      </c>
+      <c r="C19">
+        <v>5694748</v>
+      </c>
+      <c r="D19">
+        <v>713324</v>
+      </c>
+      <c r="E19">
+        <v>1604979</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4458275</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>341148.10156976676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>128</v>
+      </c>
+      <c r="B20" s="4">
+        <v>958720</v>
+      </c>
+      <c r="C20">
+        <v>8486652</v>
+      </c>
+      <c r="D20">
+        <v>941204</v>
+      </c>
+      <c r="E20">
+        <v>2117709</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5882525</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>458252.8363151215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>160</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1577536</v>
+      </c>
+      <c r="C21">
+        <v>16537276</v>
+      </c>
+      <c r="D21">
+        <v>1555892</v>
+      </c>
+      <c r="E21">
+        <v>3500757</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9724325</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>750371.43046134245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>192</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2347904</v>
+      </c>
+      <c r="C22">
+        <v>28532348</v>
+      </c>
+      <c r="D22">
+        <v>2318072</v>
+      </c>
+      <c r="E22">
+        <v>5215662</v>
+      </c>
+      <c r="F22" s="3">
+        <v>14487950</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>1122708.069552266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>224</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3269824</v>
+      </c>
+      <c r="C23">
+        <v>45258300</v>
+      </c>
+      <c r="D23">
+        <v>3246980</v>
+      </c>
+      <c r="E23">
+        <v>7305705</v>
+      </c>
+      <c r="F23" s="3">
+        <v>20293625</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>1578407.9121898792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>256</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4344320</v>
+      </c>
+      <c r="C24">
+        <v>77501564</v>
+      </c>
+      <c r="D24">
+        <v>4455552</v>
+      </c>
+      <c r="E24">
+        <v>10024992</v>
+      </c>
+      <c r="F24" s="3">
+        <v>27847200</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>2120222.5640271427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>320</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7110272</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>3471783.068618976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>384</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10547968</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>5194492.6321048848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>448</v>
+      </c>
+      <c r="B27" s="4">
+        <v>14657408</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>7302903.1256506024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>512</v>
+      </c>
+      <c r="B28" s="4">
+        <v>19440640</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>9809745.5482382644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>640</v>
+      </c>
+      <c r="B29" s="4">
+        <v>31674624</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>16063081.810216032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>768</v>
+      </c>
+      <c r="B30" s="4">
+        <v>46857728</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>24033632.99575517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>896</v>
+      </c>
+      <c r="B31" s="4">
+        <v>64989952</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>33788727.014580153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B32" s="4">
+        <v>86075392</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>45387267.051058777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0C212E-D51D-A94F-B773-632AF2F4702F}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -3748,500 +4737,4 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D964F376-F3DA-ED49-B650-60DA3AFC5D76}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D2" s="2"/>
-      <c r="E2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>2412</v>
-      </c>
-      <c r="C4">
-        <v>1524</v>
-      </c>
-      <c r="D4">
-        <v>3429</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9525</v>
-      </c>
-      <c r="F4" s="3">
-        <f>POWER(A4,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>4576</v>
-      </c>
-      <c r="C5">
-        <v>2548</v>
-      </c>
-      <c r="D5">
-        <v>5733</v>
-      </c>
-      <c r="E5" s="3">
-        <v>15925</v>
-      </c>
-      <c r="F5" s="3">
-        <f>POWER(A5,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>1637.4616172486576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>7748</v>
-      </c>
-      <c r="C6">
-        <v>4100</v>
-      </c>
-      <c r="D6">
-        <v>9225</v>
-      </c>
-      <c r="E6" s="3">
-        <v>25625</v>
-      </c>
-      <c r="F6" s="3">
-        <f>POWER(A6,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>2449.9751678137445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>12120</v>
-      </c>
-      <c r="C7">
-        <v>5768</v>
-      </c>
-      <c r="D7">
-        <v>12978</v>
-      </c>
-      <c r="E7" s="3">
-        <v>36050</v>
-      </c>
-      <c r="F7" s="3">
-        <f>POWER(A7,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>3444.4040213304288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>17884</v>
-      </c>
-      <c r="C8">
-        <v>8136</v>
-      </c>
-      <c r="D8">
-        <v>18306</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50850</v>
-      </c>
-      <c r="F8" s="3">
-        <f>POWER(A8,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>4626.7527356211522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>34356</v>
-      </c>
-      <c r="C9">
-        <v>13048</v>
-      </c>
-      <c r="D9">
-        <v>29358</v>
-      </c>
-      <c r="E9" s="3">
-        <v>81550</v>
-      </c>
-      <c r="F9" s="3">
-        <f>POWER(A9,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>7576.130017079854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>58700</v>
-      </c>
-      <c r="C10">
-        <v>20512</v>
-      </c>
-      <c r="D10">
-        <v>46152</v>
-      </c>
-      <c r="E10" s="3">
-        <v>128200</v>
-      </c>
-      <c r="F10" s="3">
-        <f>POWER(A10,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>11335.429309886131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>92452</v>
-      </c>
-      <c r="C11">
-        <v>29752</v>
-      </c>
-      <c r="D11">
-        <v>66942</v>
-      </c>
-      <c r="E11" s="3">
-        <v>185930</v>
-      </c>
-      <c r="F11" s="3">
-        <f>POWER(A11,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>15936.40572827506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>137148</v>
-      </c>
-      <c r="C12">
-        <v>39560</v>
-      </c>
-      <c r="D12">
-        <v>89010</v>
-      </c>
-      <c r="E12" s="3">
-        <v>247250</v>
-      </c>
-      <c r="F12" s="3">
-        <f>POWER(A12,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>21406.840876577797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>265516</v>
-      </c>
-      <c r="C13">
-        <v>70408</v>
-      </c>
-      <c r="D13">
-        <v>158418</v>
-      </c>
-      <c r="E13" s="3">
-        <v>440050</v>
-      </c>
-      <c r="F13" s="3">
-        <f>POWER(A13,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>35052.880281945705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>456092</v>
-      </c>
-      <c r="C14">
-        <v>103292</v>
-      </c>
-      <c r="D14">
-        <v>232407</v>
-      </c>
-      <c r="E14" s="3">
-        <v>645575</v>
-      </c>
-      <c r="F14" s="3">
-        <f>POWER(A14,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>52446.22856895579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>56</v>
-      </c>
-      <c r="B15">
-        <v>721164</v>
-      </c>
-      <c r="C15">
-        <v>154520</v>
-      </c>
-      <c r="D15">
-        <v>347670</v>
-      </c>
-      <c r="E15" s="3">
-        <v>965750</v>
-      </c>
-      <c r="F15" s="3">
-        <f>POWER(A15,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>73733.808799265287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>64</v>
-      </c>
-      <c r="B16">
-        <v>1073020</v>
-      </c>
-      <c r="C16">
-        <v>203528</v>
-      </c>
-      <c r="D16">
-        <v>457938</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1272050</v>
-      </c>
-      <c r="F16" s="3">
-        <f>POWER(A16,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>99044.159586712907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>80</v>
-      </c>
-      <c r="B17">
-        <v>2086236</v>
-      </c>
-      <c r="C17">
-        <v>323656</v>
-      </c>
-      <c r="D17">
-        <v>728226</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2022850</v>
-      </c>
-      <c r="F17" s="3">
-        <f>POWER(A17,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>162181.00973589288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>96</v>
-      </c>
-      <c r="B18">
-        <v>3594044</v>
-      </c>
-      <c r="C18">
-        <v>524000</v>
-      </c>
-      <c r="D18">
-        <v>1179000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3275000</v>
-      </c>
-      <c r="F18" s="3">
-        <f>POWER(A18,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>242655.73150442826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>112</v>
-      </c>
-      <c r="B19">
-        <v>5694748</v>
-      </c>
-      <c r="C19">
-        <v>713324</v>
-      </c>
-      <c r="D19">
-        <v>1604979</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4458275</v>
-      </c>
-      <c r="F19" s="3">
-        <f>POWER(A19,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>341148.10156976676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>128</v>
-      </c>
-      <c r="B20">
-        <v>8486652</v>
-      </c>
-      <c r="C20">
-        <v>941204</v>
-      </c>
-      <c r="D20">
-        <v>2117709</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5882525</v>
-      </c>
-      <c r="F20" s="3">
-        <f>POWER(A20,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>458252.8363151215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>160</v>
-      </c>
-      <c r="B21">
-        <v>16537276</v>
-      </c>
-      <c r="C21">
-        <v>1555892</v>
-      </c>
-      <c r="D21">
-        <v>3500757</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9724325</v>
-      </c>
-      <c r="F21" s="3">
-        <f>POWER(A21,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>750371.43046134245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>192</v>
-      </c>
-      <c r="B22">
-        <v>28532348</v>
-      </c>
-      <c r="C22">
-        <v>2318072</v>
-      </c>
-      <c r="D22">
-        <v>5215662</v>
-      </c>
-      <c r="E22" s="3">
-        <v>14487950</v>
-      </c>
-      <c r="F22" s="3">
-        <f>POWER(A22,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>1122708.069552266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>224</v>
-      </c>
-      <c r="B23">
-        <v>45258300</v>
-      </c>
-      <c r="C23">
-        <v>3246980</v>
-      </c>
-      <c r="D23">
-        <v>7305705</v>
-      </c>
-      <c r="E23" s="3">
-        <v>20293625</v>
-      </c>
-      <c r="F23" s="3">
-        <f>POWER(A23,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>1578407.9121898792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>256</v>
-      </c>
-      <c r="B24">
-        <v>77501564</v>
-      </c>
-      <c r="C24">
-        <v>4455552</v>
-      </c>
-      <c r="D24">
-        <v>10024992</v>
-      </c>
-      <c r="E24" s="3">
-        <v>27847200</v>
-      </c>
-      <c r="F24" s="3">
-        <f>POWER(A24,$F$2)*E$2/POWER(A$4,$F$2)</f>
-        <v>2120222.5640271427</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/explore/pseudoboolean/php-scaling.xlsx
+++ b/explore/pseudoboolean/php-scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B0BD81-3376-0846-AEAD-8DFC0322800B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB4CEC-C8C2-6244-86E4-ADAEA41C0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="500" windowWidth="36000" windowHeight="15860" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Z2 Presum</t>
+  </si>
+  <si>
+    <t>n^2 log n trend</t>
   </si>
 </sst>
 </file>
@@ -113,12 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,7 +1277,15 @@
           <c:idx val="1"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Trend</c:v>
+            <c:strRef>
+              <c:f>'PHP BDD Ops with presumming'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poly Trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
@@ -1531,6 +1543,286 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5784-A644-BF1E-DCE493EFEB21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops with presumming'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2 log n trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops with presumming'!$H$4:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>781.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1531.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6125.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24500.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128000.00000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>199999.99999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>288000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>392000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>799999.99999999988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1152000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1567999.9999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2048000.0000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4608000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6271999.9999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8192000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C3D0-3B40-B347-CE388C000370}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3835,10 +4127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C8FDBE-E227-6344-8301-815840BCDECB}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3847,12 +4139,15 @@
     <col min="7" max="7" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
+      <c r="H1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>1000</v>
@@ -3860,8 +4155,11 @@
       <c r="G2" s="2">
         <v>2.21</v>
       </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3883,8 +4181,11 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>8</v>
       </c>
@@ -3904,11 +4205,15 @@
         <v>9525</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G32" si="0">POWER(A4,$G$2)*F$2/POWER(A$4,$G$2)</f>
+        <f t="shared" ref="G4:H32" si="0">POWER(A4,$G$2)*F$2/POWER(A$4,$G$2)</f>
         <v>1000</v>
       </c>
+      <c r="H4" s="3">
+        <f>POWER(A4,$H$2)*LOG10(A4)*H$1/(POWER(A$4,$H$2)*LOG10(A4))</f>
+        <v>500</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -3931,8 +4236,12 @@
         <f t="shared" si="0"/>
         <v>1637.4616172486576</v>
       </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H32" si="1">POWER(A5,$H$2)*LOG10(A5)*H$1/(POWER(A$4,$H$2)*LOG10(A5))</f>
+        <v>781.25</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>12</v>
       </c>
@@ -3955,8 +4264,12 @@
         <f t="shared" si="0"/>
         <v>2449.9751678137445</v>
       </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>14</v>
       </c>
@@ -3979,8 +4292,12 @@
         <f t="shared" si="0"/>
         <v>3444.4040213304288</v>
       </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>1531.25</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>16</v>
       </c>
@@ -4003,8 +4320,12 @@
         <f t="shared" si="0"/>
         <v>4626.7527356211522</v>
       </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>20</v>
       </c>
@@ -4027,8 +4348,12 @@
         <f t="shared" si="0"/>
         <v>7576.130017079854</v>
       </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>3125</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>24</v>
       </c>
@@ -4051,8 +4376,12 @@
         <f t="shared" si="0"/>
         <v>11335.429309886131</v>
       </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>28</v>
       </c>
@@ -4075,8 +4404,12 @@
         <f t="shared" si="0"/>
         <v>15936.40572827506</v>
       </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>6125.0000000000009</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>32</v>
       </c>
@@ -4099,8 +4432,12 @@
         <f t="shared" si="0"/>
         <v>21406.840876577797</v>
       </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>40</v>
       </c>
@@ -4123,8 +4460,12 @@
         <f t="shared" si="0"/>
         <v>35052.880281945705</v>
       </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>48</v>
       </c>
@@ -4147,8 +4488,12 @@
         <f t="shared" si="0"/>
         <v>52446.22856895579</v>
       </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>56</v>
       </c>
@@ -4171,8 +4516,12 @@
         <f t="shared" si="0"/>
         <v>73733.808799265287</v>
       </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>24500.000000000004</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>64</v>
       </c>
@@ -4195,8 +4544,12 @@
         <f t="shared" si="0"/>
         <v>99044.159586712907</v>
       </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>80</v>
       </c>
@@ -4219,8 +4572,12 @@
         <f t="shared" si="0"/>
         <v>162181.00973589288</v>
       </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>96</v>
       </c>
@@ -4243,8 +4600,12 @@
         <f t="shared" si="0"/>
         <v>242655.73150442826</v>
       </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>72000</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>112</v>
       </c>
@@ -4267,8 +4628,12 @@
         <f t="shared" si="0"/>
         <v>341148.10156976676</v>
       </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>98000</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>128</v>
       </c>
@@ -4291,8 +4656,12 @@
         <f t="shared" si="0"/>
         <v>458252.8363151215</v>
       </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>128000.00000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>160</v>
       </c>
@@ -4315,8 +4684,12 @@
         <f t="shared" si="0"/>
         <v>750371.43046134245</v>
       </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>199999.99999999997</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>192</v>
       </c>
@@ -4339,8 +4712,12 @@
         <f t="shared" si="0"/>
         <v>1122708.069552266</v>
       </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>288000</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>224</v>
       </c>
@@ -4363,8 +4740,12 @@
         <f t="shared" si="0"/>
         <v>1578407.9121898792</v>
       </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>392000</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>256</v>
       </c>
@@ -4387,8 +4768,12 @@
         <f t="shared" si="0"/>
         <v>2120222.5640271427</v>
       </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>512000</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>320</v>
       </c>
@@ -4399,8 +4784,12 @@
         <f t="shared" si="0"/>
         <v>3471783.068618976</v>
       </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>799999.99999999988</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>384</v>
       </c>
@@ -4411,8 +4800,12 @@
         <f t="shared" si="0"/>
         <v>5194492.6321048848</v>
       </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>1152000</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>448</v>
       </c>
@@ -4423,8 +4816,12 @@
         <f t="shared" si="0"/>
         <v>7302903.1256506024</v>
       </c>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>1567999.9999999998</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>512</v>
       </c>
@@ -4435,8 +4832,12 @@
         <f t="shared" si="0"/>
         <v>9809745.5482382644</v>
       </c>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>2048000.0000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>640</v>
       </c>
@@ -4447,8 +4848,12 @@
         <f t="shared" si="0"/>
         <v>16063081.810216032</v>
       </c>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>3200000</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>768</v>
       </c>
@@ -4459,8 +4864,12 @@
         <f t="shared" si="0"/>
         <v>24033632.99575517</v>
       </c>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>4608000</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>896</v>
       </c>
@@ -4471,8 +4880,12 @@
         <f t="shared" si="0"/>
         <v>33788727.014580153</v>
       </c>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>6271999.9999999991</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1024</v>
       </c>
@@ -4482,6 +4895,10 @@
       <c r="G32" s="3">
         <f t="shared" si="0"/>
         <v>45387267.051058777</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>8192000</v>
       </c>
     </row>
   </sheetData>

--- a/explore/pseudoboolean/php-scaling.xlsx
+++ b/explore/pseudoboolean/php-scaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB4CEC-C8C2-6244-86E4-ADAEA41C0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923F446C-57BA-9344-B8C6-07B5E495830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="500" windowWidth="36000" windowHeight="15860" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
+    <workbookView xWindow="5980" yWindow="500" windowWidth="36000" windowHeight="15860" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="PHP BDD Ops with presumming" sheetId="7" r:id="rId1"/>
@@ -1177,91 +1177,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>1936</c:v>
+                  <c:v>2688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3276</c:v>
+                  <c:v>4584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4952</c:v>
+                  <c:v>6960</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6964</c:v>
+                  <c:v>9816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9376</c:v>
+                  <c:v>13248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15752</c:v>
+                  <c:v>22368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23728</c:v>
+                  <c:v>33792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33304</c:v>
+                  <c:v>47520</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44608</c:v>
+                  <c:v>63744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74384</c:v>
+                  <c:v>106656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>111584</c:v>
+                  <c:v>160320</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156208</c:v>
+                  <c:v>224736</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>208512</c:v>
+                  <c:v>300288</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>345248</c:v>
+                  <c:v>498432</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>515776</c:v>
+                  <c:v>745728</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>720096</c:v>
+                  <c:v>1042176</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>958720</c:v>
+                  <c:v>1388544</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1577536</c:v>
+                  <c:v>2289024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2347904</c:v>
+                  <c:v>3410688</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3269824</c:v>
+                  <c:v>4753536</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4344320</c:v>
+                  <c:v>6319104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7110272</c:v>
+                  <c:v>10357248</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10547968</c:v>
+                  <c:v>15378432</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14657408</c:v>
+                  <c:v>21382656</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19440640</c:v>
+                  <c:v>28372992</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31674624</c:v>
+                  <c:v>46281216</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>46857728</c:v>
+                  <c:v>68514816</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>64989952</c:v>
+                  <c:v>95073792</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>86075392</c:v>
+                  <c:v>125964288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4129,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C8FDBE-E227-6344-8301-815840BCDECB}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4190,7 +4190,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4">
-        <v>1936</v>
+        <v>2688</v>
       </c>
       <c r="C4">
         <v>2412</v>
@@ -4218,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4">
-        <v>3276</v>
+        <v>4584</v>
       </c>
       <c r="C5">
         <v>4576</v>
@@ -4246,7 +4246,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="4">
-        <v>4952</v>
+        <v>6960</v>
       </c>
       <c r="C6">
         <v>7748</v>
@@ -4274,7 +4274,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="4">
-        <v>6964</v>
+        <v>9816</v>
       </c>
       <c r="C7">
         <v>12120</v>
@@ -4302,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="4">
-        <v>9376</v>
+        <v>13248</v>
       </c>
       <c r="C8">
         <v>17884</v>
@@ -4330,7 +4330,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4">
-        <v>15752</v>
+        <v>22368</v>
       </c>
       <c r="C9">
         <v>34356</v>
@@ -4358,7 +4358,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="4">
-        <v>23728</v>
+        <v>33792</v>
       </c>
       <c r="C10">
         <v>58700</v>
@@ -4386,7 +4386,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="4">
-        <v>33304</v>
+        <v>47520</v>
       </c>
       <c r="C11">
         <v>92452</v>
@@ -4414,7 +4414,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="4">
-        <v>44608</v>
+        <v>63744</v>
       </c>
       <c r="C12">
         <v>137148</v>
@@ -4442,7 +4442,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="4">
-        <v>74384</v>
+        <v>106656</v>
       </c>
       <c r="C13">
         <v>265516</v>
@@ -4470,7 +4470,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="4">
-        <v>111584</v>
+        <v>160320</v>
       </c>
       <c r="C14">
         <v>456092</v>
@@ -4498,7 +4498,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="4">
-        <v>156208</v>
+        <v>224736</v>
       </c>
       <c r="C15">
         <v>721164</v>
@@ -4526,7 +4526,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="4">
-        <v>208512</v>
+        <v>300288</v>
       </c>
       <c r="C16">
         <v>1073020</v>
@@ -4554,7 +4554,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="4">
-        <v>345248</v>
+        <v>498432</v>
       </c>
       <c r="C17">
         <v>2086236</v>
@@ -4582,7 +4582,7 @@
         <v>96</v>
       </c>
       <c r="B18" s="4">
-        <v>515776</v>
+        <v>745728</v>
       </c>
       <c r="C18">
         <v>3594044</v>
@@ -4610,7 +4610,7 @@
         <v>112</v>
       </c>
       <c r="B19" s="4">
-        <v>720096</v>
+        <v>1042176</v>
       </c>
       <c r="C19">
         <v>5694748</v>
@@ -4638,7 +4638,7 @@
         <v>128</v>
       </c>
       <c r="B20" s="4">
-        <v>958720</v>
+        <v>1388544</v>
       </c>
       <c r="C20">
         <v>8486652</v>
@@ -4666,7 +4666,7 @@
         <v>160</v>
       </c>
       <c r="B21" s="4">
-        <v>1577536</v>
+        <v>2289024</v>
       </c>
       <c r="C21">
         <v>16537276</v>
@@ -4694,7 +4694,7 @@
         <v>192</v>
       </c>
       <c r="B22" s="4">
-        <v>2347904</v>
+        <v>3410688</v>
       </c>
       <c r="C22">
         <v>28532348</v>
@@ -4722,7 +4722,7 @@
         <v>224</v>
       </c>
       <c r="B23" s="4">
-        <v>3269824</v>
+        <v>4753536</v>
       </c>
       <c r="C23">
         <v>45258300</v>
@@ -4750,7 +4750,7 @@
         <v>256</v>
       </c>
       <c r="B24" s="4">
-        <v>4344320</v>
+        <v>6319104</v>
       </c>
       <c r="C24">
         <v>77501564</v>
@@ -4778,7 +4778,7 @@
         <v>320</v>
       </c>
       <c r="B25" s="4">
-        <v>7110272</v>
+        <v>10357248</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
@@ -4794,7 +4794,7 @@
         <v>384</v>
       </c>
       <c r="B26" s="4">
-        <v>10547968</v>
+        <v>15378432</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
@@ -4810,7 +4810,7 @@
         <v>448</v>
       </c>
       <c r="B27" s="4">
-        <v>14657408</v>
+        <v>21382656</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
@@ -4826,7 +4826,7 @@
         <v>512</v>
       </c>
       <c r="B28" s="4">
-        <v>19440640</v>
+        <v>28372992</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
@@ -4842,7 +4842,7 @@
         <v>640</v>
       </c>
       <c r="B29" s="4">
-        <v>31674624</v>
+        <v>46281216</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
@@ -4858,7 +4858,7 @@
         <v>768</v>
       </c>
       <c r="B30" s="4">
-        <v>46857728</v>
+        <v>68514816</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
@@ -4874,7 +4874,7 @@
         <v>896</v>
       </c>
       <c r="B31" s="4">
-        <v>64989952</v>
+        <v>95073792</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
@@ -4890,7 +4890,7 @@
         <v>1024</v>
       </c>
       <c r="B32" s="4">
-        <v>86075392</v>
+        <v>125964288</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>

--- a/explore/pseudoboolean/php-scaling.xlsx
+++ b/explore/pseudoboolean/php-scaling.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923F446C-57BA-9344-B8C6-07B5E495830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0CD506-CED1-CF41-8180-C64A85F826C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="500" windowWidth="36000" windowHeight="15860" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
+    <workbookView xWindow="5980" yWindow="500" windowWidth="36000" windowHeight="15860" activeTab="2" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="PHP BDD Ops with presumming" sheetId="7" r:id="rId1"/>
     <sheet name="MCB Operations" sheetId="1" r:id="rId2"/>
+    <sheet name="PHP BDD Ops presumming Pwr2" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>N</t>
   </si>
@@ -71,6 +72,12 @@
   </si>
   <si>
     <t>n^2 log n trend</t>
+  </si>
+  <si>
+    <t>X=0</t>
+  </si>
+  <si>
+    <t>X=1</t>
   </si>
 </sst>
 </file>
@@ -2662,6 +2669,811 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$A$4:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X=0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>319488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1474560</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6684672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29884416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132120576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poly Trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$G$4:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4626.7527356211522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21406.840876577797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99044.159586712907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>458252.8363151215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2120222.5640271427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9809745.5482382644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45387267.051058777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2 log n trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops presumming Pwr2'!$H$4:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128000.00000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048000.0000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1388773584"/>
+        <c:axId val="1389361440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1388773584"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1024"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389361440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1389361440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388773584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2742,6 +3554,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
@@ -3245,6 +4097,508 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3814,6 +5168,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292485</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333536</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>192424</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D3A492-6385-A74A-A1DE-D7DB43653C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4129,7 +5526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C8FDBE-E227-6344-8301-815840BCDECB}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -4205,7 +5602,7 @@
         <v>9525</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:H32" si="0">POWER(A4,$G$2)*F$2/POWER(A$4,$G$2)</f>
+        <f t="shared" ref="G4:G32" si="0">POWER(A4,$G$2)*F$2/POWER(A$4,$G$2)</f>
         <v>1000</v>
       </c>
       <c r="H4" s="3">
@@ -5154,4 +6551,319 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12631550-42EC-FC4B-ACA4-BB34AC58BF6A}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2688</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2688</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G32" si="0">POWER(A4,$G$2)*F$2/POWER(A$4,$G$2)</f>
+        <v>1000</v>
+      </c>
+      <c r="H4" s="3">
+        <f>POWER(A4,$H$2)*LOG10(A4)*H$1/(POWER(A$4,$H$2)*LOG10(A4))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>13824</v>
+      </c>
+      <c r="C5" s="4">
+        <v>13248</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>4626.7527356211522</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H32" si="1">POWER(A5,$H$2)*LOG10(A5)*H$1/(POWER(A$4,$H$2)*LOG10(A5))</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4">
+        <v>67584</v>
+      </c>
+      <c r="C6" s="4">
+        <v>63744</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>21406.840876577797</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4">
+        <v>319488</v>
+      </c>
+      <c r="C7" s="4">
+        <v>300288</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>99044.159586712907</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>128</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1474560</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1388544</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>458252.8363151215</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>128000.00000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>256</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6684672</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6319104</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>2120222.5640271427</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>512000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>512</v>
+      </c>
+      <c r="B10" s="4">
+        <v>29884416</v>
+      </c>
+      <c r="C10" s="4">
+        <v>28372992</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>9809745.5482382644</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>2048000.0000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B11" s="4">
+        <v>132120576</v>
+      </c>
+      <c r="C11" s="4">
+        <v>125964288</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>45387267.051058777</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>8192000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="H32" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/explore/pseudoboolean/php-scaling.xlsx
+++ b/explore/pseudoboolean/php-scaling.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0CD506-CED1-CF41-8180-C64A85F826C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE8BF16-F2AC-3B47-B062-3412BEDB4408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="500" windowWidth="36000" windowHeight="15860" activeTab="2" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
+    <workbookView xWindow="3480" yWindow="3480" windowWidth="36000" windowHeight="15860" activeTab="2" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="PHP BDD Ops with presumming" sheetId="7" r:id="rId1"/>
     <sheet name="MCB Operations" sheetId="1" r:id="rId2"/>
-    <sheet name="PHP BDD Ops presumming Pwr2" sheetId="8" r:id="rId3"/>
+    <sheet name="PHP BDD Ops Pwr2" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -74,10 +74,16 @@
     <t>n^2 log n trend</t>
   </si>
   <si>
-    <t>X=0</t>
+    <t>Equ+GE</t>
   </si>
   <si>
-    <t>X=1</t>
+    <t>Equ+Presum</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>n^5.9 trend</t>
   </si>
 </sst>
 </file>
@@ -123,13 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2690,15 +2697,285 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$C$3</c:f>
+              <c:f>'PHP BDD Ops Pwr2'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>X=1</c:v>
+                  <c:v>Constraints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops Pwr2'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops Pwr2'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>86093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4434750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>258299249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15854613261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>995272006475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63111737862676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops Pwr2'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^5.9 trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops Pwr2'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Ops Pwr2'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>597141.11458355875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35657751.072609343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2129270921.9040875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127147521155.61685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7592501249940.1641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Ops Pwr2'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equ+Presum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2765,7 +3042,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$A$4:$A$24</c:f>
+              <c:f>'PHP BDD Ops Pwr2'!$A$4:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2787,18 +3064,12 @@
                 <c:pt idx="5">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$C$3</c:f>
+              <c:f>'PHP BDD Ops Pwr2'!$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2817,14 +3088,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$B$3</c:f>
+              <c:f>'PHP BDD Ops Pwr2'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>X=0</c:v>
+                  <c:v>Equ+GE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2891,7 +3162,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$A$4:$A$32</c:f>
+              <c:f>'PHP BDD Ops Pwr2'!$A$4:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2913,44 +3184,32 @@
                 <c:pt idx="5">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$B$4:$B$32</c:f>
+              <c:f>'PHP BDD Ops Pwr2'!$B$4:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2688</c:v>
+                  <c:v>1912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13824</c:v>
+                  <c:v>9982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67584</c:v>
+                  <c:v>48238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>319488</c:v>
+                  <c:v>241552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1474560</c:v>
+                  <c:v>1115816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6684672</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29884416</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132120576</c:v>
+                  <c:v>5233130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,158 +3222,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="6"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Poly Trend</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$A$4:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$G$4:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4626.7527356211522</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21406.840876577797</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99044.159586712907</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>458252.8363151215</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2120222.5640271427</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9809745.5482382644</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45387267.051058777</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A181-9C4E-82F8-51B881736AE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$H$3</c:f>
+              <c:f>'PHP BDD Ops Pwr2'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3192,7 +3304,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$A$4:$A$32</c:f>
+              <c:f>'PHP BDD Ops Pwr2'!$A$4:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -3214,44 +3326,32 @@
                 <c:pt idx="5">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops presumming Pwr2'!$H$4:$H$32</c:f>
+              <c:f>'PHP BDD Ops Pwr2'!$H$4:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32000</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128000.00000000001</c:v>
+                  <c:v>256000.00000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048000.0000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192000</c:v>
+                  <c:v>1024000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3279,7 +3379,7 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="1024"/>
+          <c:max val="256"/>
           <c:min val="8"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3344,8 +3444,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000000000"/>
-          <c:min val="100"/>
+          <c:max val="100000000000000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6558,13 +6658,13 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -6572,16 +6672,16 @@
         <v>5</v>
       </c>
       <c r="H1">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G2" s="2">
-        <v>2.21</v>
+        <v>5.9</v>
       </c>
       <c r="H2" s="5">
         <v>2</v>
@@ -6597,8 +6697,11 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -6609,18 +6712,21 @@
         <v>8</v>
       </c>
       <c r="B4" s="4">
-        <v>2688</v>
+        <v>1912</v>
       </c>
       <c r="C4" s="4">
-        <v>2688</v>
-      </c>
-      <c r="G4" s="3">
+        <v>1936</v>
+      </c>
+      <c r="D4" s="4">
+        <v>86093</v>
+      </c>
+      <c r="G4" s="6">
         <f t="shared" ref="G4:G32" si="0">POWER(A4,$G$2)*F$2/POWER(A$4,$G$2)</f>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H4" s="3">
         <f>POWER(A4,$H$2)*LOG10(A4)*H$1/(POWER(A$4,$H$2)*LOG10(A4))</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6628,18 +6734,21 @@
         <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>13824</v>
+        <v>9982</v>
       </c>
       <c r="C5" s="4">
-        <v>13248</v>
-      </c>
-      <c r="G5" s="3">
+        <v>9376</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4434750</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>4626.7527356211522</v>
+        <v>597141.11458355875</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H32" si="1">POWER(A5,$H$2)*LOG10(A5)*H$1/(POWER(A$4,$H$2)*LOG10(A5))</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6647,18 +6756,21 @@
         <v>32</v>
       </c>
       <c r="B6" s="4">
-        <v>67584</v>
+        <v>48238</v>
       </c>
       <c r="C6" s="4">
-        <v>63744</v>
-      </c>
-      <c r="G6" s="3">
+        <v>44608</v>
+      </c>
+      <c r="D6" s="4">
+        <v>258299249</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>21406.840876577797</v>
+        <v>35657751.072609343</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6666,18 +6778,21 @@
         <v>64</v>
       </c>
       <c r="B7" s="4">
-        <v>319488</v>
+        <v>241552</v>
       </c>
       <c r="C7" s="4">
-        <v>300288</v>
-      </c>
-      <c r="G7" s="3">
+        <v>208512</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15854613261</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>99044.159586712907</v>
+        <v>2129270921.9040875</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>32000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6685,18 +6800,21 @@
         <v>128</v>
       </c>
       <c r="B8" s="4">
-        <v>1474560</v>
+        <v>1115816</v>
       </c>
       <c r="C8" s="4">
-        <v>1388544</v>
-      </c>
-      <c r="G8" s="3">
+        <v>958720</v>
+      </c>
+      <c r="D8" s="4">
+        <v>995272006475</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>458252.8363151215</v>
+        <v>127147521155.61685</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>128000.00000000001</v>
+        <v>256000.00000000003</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6704,57 +6822,34 @@
         <v>256</v>
       </c>
       <c r="B9" s="4">
-        <v>6684672</v>
+        <v>5233130</v>
       </c>
       <c r="C9" s="4">
-        <v>6319104</v>
-      </c>
-      <c r="G9" s="3">
+        <v>4344320</v>
+      </c>
+      <c r="D9" s="4">
+        <v>63111737862676</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>2120222.5640271427</v>
+        <v>7592501249940.1641</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>512000</v>
+        <v>1024000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>512</v>
-      </c>
-      <c r="B10" s="4">
-        <v>29884416</v>
-      </c>
-      <c r="C10" s="4">
-        <v>28372992</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>9809745.5482382644</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="1"/>
-        <v>2048000.0000000002</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>1024</v>
-      </c>
-      <c r="B11" s="4">
-        <v>132120576</v>
-      </c>
-      <c r="C11" s="4">
-        <v>125964288</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>45387267.051058777</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="1"/>
-        <v>8192000</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>

--- a/explore/pseudoboolean/php-scaling.xlsx
+++ b/explore/pseudoboolean/php-scaling.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85DFF0A-EDD8-A945-8BB6-B8042BE0BDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1BBE58-E758-3049-AF0C-19122331CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="8160" windowWidth="36000" windowHeight="15860" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
+    <workbookView xWindow="8260" yWindow="8160" windowWidth="36000" windowHeight="15860" activeTab="1" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="PHP BDD Ops" sheetId="8" r:id="rId1"/>
+    <sheet name="PHP BDD Ops Equations" sheetId="9" r:id="rId1"/>
+    <sheet name="PHP BDD Both" sheetId="8" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>N</t>
   </si>
@@ -55,6 +59,9 @@
   </si>
   <si>
     <t>n^4 trend</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -204,217 +211,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PHP BDD Ops'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Constraints</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops'!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops'!$D$4:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>204322</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3238570</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51825913</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>828618723</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13277617160</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A181-9C4E-82F8-51B881736AE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PHP BDD Ops'!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n^4 trend</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:alpha val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops'!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PHP BDD Ops'!$G$4:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1280000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20480000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>327680000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5242880000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-A181-9C4E-82F8-51B881736AE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PHP BDD Ops'!$C$3</c:f>
+              <c:f>'PHP BDD Ops Equations'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -453,7 +254,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops'!$A$4:$A$24</c:f>
+              <c:f>'PHP BDD Ops Equations'!$A$4:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -480,12 +281,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops'!$C$3</c:f>
+              <c:f>'PHP BDD Ops Equations'!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>958720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4344320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,16 +309,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A181-9C4E-82F8-51B881736AE0}"/>
+              <c16:uniqueId val="{00000002-2056-694F-897B-065C6C14E874}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PHP BDD Ops'!$B$3</c:f>
+              <c:f>'PHP BDD Ops Equations'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -541,7 +357,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops'!$A$4:$A$32</c:f>
+              <c:f>'PHP BDD Ops Equations'!$A$4:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -568,7 +384,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops'!$B$4:$B$32</c:f>
+              <c:f>'PHP BDD Ops Equations'!$B$4:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -596,16 +412,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A181-9C4E-82F8-51B881736AE0}"/>
+              <c16:uniqueId val="{00000003-2056-694F-897B-065C6C14E874}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PHP BDD Ops'!$H$3</c:f>
+              <c:f>'PHP BDD Ops Equations'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -646,7 +462,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops'!$A$4:$A$32</c:f>
+              <c:f>'PHP BDD Ops Equations'!$A$4:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -673,7 +489,819 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PHP BDD Ops'!$H$4:$H$32</c:f>
+              <c:f>'PHP BDD Ops Equations'!$H$4:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256000.00000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2056-694F-897B-065C6C14E874}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1388773584"/>
+        <c:axId val="1389361440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1388773584"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="256"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389361440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1389361440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388773584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pigeon-Hole</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Principle Projected BDD Operations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Both'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3238570</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51825913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>828618723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13277617160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Both'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^4 trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20480000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327680000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5242880000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Both'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equ+Presum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$A$4:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>958720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4344320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Both'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equ+GE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1115816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5233130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PHP BDD Both'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2 log n trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PHP BDD Both'!$H$4:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="29"/>
@@ -920,7 +1548,899 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mutilated Chessboard </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Projected BDD Operations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]MCB BDD Ops Both'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>72927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4234684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320912046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20524680200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1467338051584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99888147457340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDC0-284B-A4D4-9F0AE3B3D413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]MCB BDD Ops Both'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^6 trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81920000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5242880000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335544320000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21474836480000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDC0-284B-A4D4-9F0AE3B3D413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]MCB BDD Ops Both'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equ+Presum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$A$4:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>327396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1620900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7705380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35642916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDC0-284B-A4D4-9F0AE3B3D413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]MCB BDD Ops Both'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equ+GE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>5733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2629767</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10904838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDC0-284B-A4D4-9F0AE3B3D413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]MCB BDD Ops Both'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2 log n trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]MCB BDD Ops Both'!$H$4:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2500.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000.00000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2560000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BDC0-284B-A4D4-9F0AE3B3D413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1388773584"/>
+        <c:axId val="1389361440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1388773584"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="256"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389361440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1389361440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000000000000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388773584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1478,7 +2998,1086 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333535</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>192424</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F3A4E7-5235-8A48-BB7C-03E8D37FADEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1518,7 +4117,198 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>75943</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6AA50C-3A2C-9E4E-9FC0-D7968ED210EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MCB BDD Ops Equations"/>
+      <sheetName val="MCB BDD Ops Both"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Equ+GE</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Equ+Presum</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Constraints</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>n^6 trend</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>n^2 log n trend</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>8</v>
+          </cell>
+          <cell r="B4">
+            <v>5733</v>
+          </cell>
+          <cell r="C4">
+            <v>10452</v>
+          </cell>
+          <cell r="D4">
+            <v>72927</v>
+          </cell>
+          <cell r="G4">
+            <v>20000</v>
+          </cell>
+          <cell r="H4">
+            <v>2500.0000000000005</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>16</v>
+          </cell>
+          <cell r="B5">
+            <v>31005</v>
+          </cell>
+          <cell r="C5">
+            <v>61956</v>
+          </cell>
+          <cell r="D5">
+            <v>4234684</v>
+          </cell>
+          <cell r="G5">
+            <v>1280000</v>
+          </cell>
+          <cell r="H5">
+            <v>10000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>32</v>
+          </cell>
+          <cell r="B6">
+            <v>142611</v>
+          </cell>
+          <cell r="C6">
+            <v>327396</v>
+          </cell>
+          <cell r="D6">
+            <v>320912046</v>
+          </cell>
+          <cell r="G6">
+            <v>81920000</v>
+          </cell>
+          <cell r="H6">
+            <v>40000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>64</v>
+          </cell>
+          <cell r="B7">
+            <v>625566</v>
+          </cell>
+          <cell r="C7">
+            <v>1620900</v>
+          </cell>
+          <cell r="D7">
+            <v>20524680200</v>
+          </cell>
+          <cell r="G7">
+            <v>5242880000</v>
+          </cell>
+          <cell r="H7">
+            <v>160000.00000000003</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>128</v>
+          </cell>
+          <cell r="B8">
+            <v>2629767</v>
+          </cell>
+          <cell r="C8">
+            <v>7705380</v>
+          </cell>
+          <cell r="D8">
+            <v>1467338051584</v>
+          </cell>
+          <cell r="G8">
+            <v>335544320000</v>
+          </cell>
+          <cell r="H8">
+            <v>640000</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>256</v>
+          </cell>
+          <cell r="B9">
+            <v>10904838</v>
+          </cell>
+          <cell r="C9">
+            <v>35642916</v>
+          </cell>
+          <cell r="D9">
+            <v>99888147457340</v>
+          </cell>
+          <cell r="G9">
+            <v>21474836480000</v>
+          </cell>
+          <cell r="H9">
+            <v>2560000</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1817,11 +4607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12631550-42EC-FC4B-ACA4-BB34AC58BF6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEF9FE9-AB7A-6140-8A1B-080CC77848DA}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2124,4 +4914,317 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12631550-42EC-FC4B-ACA4-BB34AC58BF6A}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1912</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1936</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13017</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G9" si="0">POWER(A4,$G$2)*F$2/POWER(A$4,$G$2)</f>
+        <v>5000</v>
+      </c>
+      <c r="H4" s="2">
+        <f>POWER(A4,$H$2)*LOG10(A4)*H$1/(POWER(A$4,$H$2)*LOG10(A4))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9982</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9376</v>
+      </c>
+      <c r="D5" s="3">
+        <v>204322</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H9" si="1">POWER(A5,$H$2)*LOG10(A5)*H$1/(POWER(A$4,$H$2)*LOG10(A5))</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>48238</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44608</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3238570</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>1280000</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>64</v>
+      </c>
+      <c r="B7" s="3">
+        <v>241552</v>
+      </c>
+      <c r="C7" s="3">
+        <v>208512</v>
+      </c>
+      <c r="D7" s="3">
+        <v>51825913</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>20480000</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>128</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1115816</v>
+      </c>
+      <c r="C8" s="3">
+        <v>958720</v>
+      </c>
+      <c r="D8" s="3">
+        <v>828618723</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>327680000</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>256000.00000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>256</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5233130</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4344320</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13277617160</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>5242880000</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>1024000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>